--- a/results/07-2023/contributions-comparison-07-2023.xlsx
+++ b/results/07-2023/contributions-comparison-07-2023.xlsx
@@ -1620,28 +1620,28 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0437</v>
+        <v>0.0044</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0313</v>
+        <v>0.0031</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0406</v>
+        <v>0.0041</v>
       </c>
       <c r="P25" t="n">
-        <v>0.022</v>
+        <v>0.0022</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0217</v>
+        <v>0.0022</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0181</v>
+        <v>0.0018</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0173</v>
+        <v>0.0017</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0353</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="26">
@@ -1890,28 +1890,28 @@
         <v>-0.7403</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.2652</v>
+        <v>-0.3045</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.2644</v>
+        <v>-0.2926</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.5113</v>
+        <v>-0.5478</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0023</v>
+        <v>-0.0175</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.0469</v>
+        <v>-0.0664</v>
       </c>
       <c r="R31" t="n">
-        <v>0.074</v>
+        <v>0.0577</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0566</v>
+        <v>-0.0722</v>
       </c>
       <c r="T31" t="n">
-        <v>-72.7416</v>
+        <v>-72.7098</v>
       </c>
     </row>
     <row r="32">
@@ -4140,28 +4140,28 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>-0.0393</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0005</v>
+        <v>-0.0277</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0006</v>
+        <v>-0.0359</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0003</v>
+        <v>-0.0195</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.0003</v>
+        <v>-0.0192</v>
       </c>
       <c r="R81" t="n">
-        <v>0.0002</v>
+        <v>-0.016</v>
       </c>
       <c r="S81" t="n">
-        <v>0.0002</v>
+        <v>-0.0153</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.0006</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="82">
@@ -4410,28 +4410,28 @@
         <v>0.342</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.1507</v>
+        <v>-0.19</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.0314</v>
+        <v>-0.0595</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.0531</v>
+        <v>-0.0897</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0963</v>
+        <v>0.0765</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.0375</v>
+        <v>-0.057</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.0324</v>
+        <v>-0.0487</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.0263</v>
+        <v>-0.0418</v>
       </c>
       <c r="T87" t="n">
-        <v>-1.0301</v>
+        <v>-0.9983</v>
       </c>
     </row>
     <row r="88">
